--- a/biology/Biologie cellulaire et moléculaire/Pyroséquençage/Pyroséquençage.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pyroséquençage/Pyroséquençage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pyros%C3%A9quen%C3%A7age</t>
+          <t>Pyroséquençage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pyroséquençage est une technique de séquençage de l'ADN qui permet d’effectuer un séquençage rapide et à moindre coût qu’un séquençage par la méthode de Sanger. En effet, cette technique ne nécessite pas de clonage (donc gain de temps et d’argent), et permet une lecture directe de la séquence obtenue après le séquençage. Elle est basée sur le principe du « séquençage par synthèse », dans lequel le séquençage est effectué en détectant le nucléotide incorporé par une ADN polymérase. Le pyroséquençage s'appuie sur la détection, par quantification de lumière émise, du pyrophosphate libéré lors de la réaction en chaîne, d'où le nom de pyroséquençage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pyros%C3%A9quen%C3%A7age</t>
+          <t>Pyroséquençage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le principe du pyroséquençage a d'abord été énoncé en 1993 par Pettersson, Uhlen et Nyren[1] en combinant la phase solide du séquençage[2] utilisant des billes magnétiques enveloppées de streptavidine avec de l'ADN polymérase recombinante n'ayant pas d'activité 3'-5' exonucléase (permettant la correction sur épreuves ou proof-reading) et de la détection de luminescence via l'activité enzymatique de la luciférase[3]. C'est donc un mélange de trois enzymes (ADN polymérase, ATP sulfurylase et luciférase) et un nucléotide (dNTP) qui est ajouté à un simple brin d'ADN que l'on veut séquencer, et l'incorporation du nucléotide est suivie en mesurant la quantité de lumière émise. L'intensité de la lumière détermine si 0, 1 ou plusieurs nucléotides ont été incorporés, ce qui permet de voir combien de nucléotides complémentaires sont présents sur le brin matrice. La mixture d'enzymes avec le premier nucléotide est ensuite retirée du milieu avant qu'une autre mixture avec le deuxième nucléotide soit ajoutée. Ce processus est répété avec chacun des quatre types de nucléotides jusqu'à ce que la séquence d'ADN du simple brin matrice soit déterminée.
-Une seconde méthode de pyroséquençage a été développée en 1998 par Ronaghi, Uhlen et Nyren[4]. On ajoute une enzyme en plus, l'apyrase, qui a pour rôle de dégrader les nucléotides en surplus qui ne sont pas incorporés par l'ADN polymérase. Cela permet à la mixture enzymatique d'être gardée tout au long de la procédure, permettant ainsi au dispositif d'être autonome. Un instrument automatisé basé sur ce principe a été introduit sur le marché l'année suivante par la compagnie Pyrosequencing.
-Enfin, une troisième méthode alternative a été développée en 2005 par Rothberg et ses collaborateurs[5]. Elle est basée sur le principe originel d'attacher l'ADN à séquencer sur un support solide et le séquençage se fait de manière similaire aux autres méthodes en utilisant une puce à ADN microfabriquée. Cette méthode a permis un séquençage de l'ADN à haut débit et de développer un instrument automatisé introduit sur le marché par la suite. Il est devenu le premier instrument de séquençage de nouvelle génération, ouvrant ainsi la voie à une nouvelle ère en génomique, avec des coûts diminuant rapidement, permettant un séquençage complet de génomes à des prix abordables.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principe du pyroséquençage a d'abord été énoncé en 1993 par Pettersson, Uhlen et Nyren en combinant la phase solide du séquençage utilisant des billes magnétiques enveloppées de streptavidine avec de l'ADN polymérase recombinante n'ayant pas d'activité 3'-5' exonucléase (permettant la correction sur épreuves ou proof-reading) et de la détection de luminescence via l'activité enzymatique de la luciférase. C'est donc un mélange de trois enzymes (ADN polymérase, ATP sulfurylase et luciférase) et un nucléotide (dNTP) qui est ajouté à un simple brin d'ADN que l'on veut séquencer, et l'incorporation du nucléotide est suivie en mesurant la quantité de lumière émise. L'intensité de la lumière détermine si 0, 1 ou plusieurs nucléotides ont été incorporés, ce qui permet de voir combien de nucléotides complémentaires sont présents sur le brin matrice. La mixture d'enzymes avec le premier nucléotide est ensuite retirée du milieu avant qu'une autre mixture avec le deuxième nucléotide soit ajoutée. Ce processus est répété avec chacun des quatre types de nucléotides jusqu'à ce que la séquence d'ADN du simple brin matrice soit déterminée.
+Une seconde méthode de pyroséquençage a été développée en 1998 par Ronaghi, Uhlen et Nyren. On ajoute une enzyme en plus, l'apyrase, qui a pour rôle de dégrader les nucléotides en surplus qui ne sont pas incorporés par l'ADN polymérase. Cela permet à la mixture enzymatique d'être gardée tout au long de la procédure, permettant ainsi au dispositif d'être autonome. Un instrument automatisé basé sur ce principe a été introduit sur le marché l'année suivante par la compagnie Pyrosequencing.
+Enfin, une troisième méthode alternative a été développée en 2005 par Rothberg et ses collaborateurs. Elle est basée sur le principe originel d'attacher l'ADN à séquencer sur un support solide et le séquençage se fait de manière similaire aux autres méthodes en utilisant une puce à ADN microfabriquée. Cette méthode a permis un séquençage de l'ADN à haut débit et de développer un instrument automatisé introduit sur le marché par la suite. Il est devenu le premier instrument de séquençage de nouvelle génération, ouvrant ainsi la voie à une nouvelle ère en génomique, avec des coûts diminuant rapidement, permettant un séquençage complet de génomes à des prix abordables.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pyros%C3%A9quen%C3%A7age</t>
+          <t>Pyroséquençage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Procédure[6]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le principe du "séquençage par synthèse", on prend un simple brin d'ADN à séquencer et on synthétise ensuite son brin complémentaire de façon enzymatique. 
 La méthode de pyroséquençage est basée sur la détection de l'activité de l'ADN polymérase avec une autre enzyme chimioluminescente. Dans son principe, la méthode permet de séquencer un simple brin d'ADN en synthétisant son brin complémentaire à raison d'une paire de bases à la fois, en détectant à chaque fois quelle base a été ajoutée à chaque étape. La matrice d'ADN est immobile et des solutions de nucléotides A, T, G et C sont ajoutées l'une après l'autre puis retirées de la réaction. De la lumière est produite seulement lorsque la solution de nucléotides complémente la première base non appariée de la matrice. La séquence des solutions nucléotidiques produisant des signaux chimioluminescents permet de déterminer la séquence du brin matrice.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pyros%C3%A9quen%C3%A7age</t>
+          <t>Pyroséquençage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, l'une des limites de la méthode est que les longueurs des lectures individuelles de la séquence d'ADN sont autour de 300 à 500 nucléotides, soit moins que les 800 à 1000 nucléotides que l'on peut obtenir avec les méthodes à terminaison de chaîne comme la méthode de Sanger. Cela peut rendre le processus d'assemblage du génome plus difficile, en particulier pour les séquences contenant une grande quantité de séquences répétées. Le manque d'activité de correction sur épreuves (proof-reading) limite la précision de cette méthode.
 </t>
